--- a/src/Pickles/MIL_pickles/Output/AN200/AN200_TestScript_Desktop_Labelling_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN200/AN200_TestScript_Desktop_Labelling_Validation_UR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>LegalLabelling</x:t>
   </x:si>
@@ -53,13 +53,10 @@
     <x:t xml:space="preserve">And </x:t>
   </x:si>
   <x:si>
-    <x:t>the information includes the CE mark</x:t>
+    <x:t>the information includes the UKCA mark</x:t>
   </x:si>
   <x:si>
     <x:t>the information includes the manufacturer details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the information includes the CE representative details</x:t>
   </x:si>
   <x:si>
     <x:t>the information includes the date of manufacture</x:t>
@@ -574,7 +571,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -584,7 +581,7 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="B3" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -605,7 +602,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D27"/>
+  <x:dimension ref="A1:D26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -723,31 +720,31 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
-      <x:c r="B20" s="1" t="s">
+      <x:c r="B20" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:4">
-      <x:c r="B21" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
+    <x:row r="21" spans="1:4"/>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:4"/>
     <x:row r="23" spans="1:4">
       <x:c r="C23" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
         <x:v>22</x:v>
@@ -755,7 +752,7 @@
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="C24" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>23</x:v>
@@ -775,14 +772,6 @@
       </x:c>
       <x:c r="D26" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -807,7 +796,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -815,17 +804,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -833,16 +822,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -850,7 +839,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -858,12 +847,12 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -871,16 +860,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
     <x:row r="15" spans="1:4">
       <x:c r="C15" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -888,7 +877,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -896,7 +885,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -904,7 +893,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -912,7 +901,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -920,7 +909,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -928,12 +917,12 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="B23" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -941,16 +930,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4"/>
     <x:row r="26" spans="1:4">
       <x:c r="C26" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -958,7 +947,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -966,7 +955,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
